--- a/PROCURAS.xlsx
+++ b/PROCURAS.xlsx
@@ -1470,7 +1470,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AO6"/>
+  <dimension ref="A2:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1519,7 +1519,8 @@
     <col min="39" max="39" width="5.5" style="1" customWidth="1"/>
     <col min="40" max="40" width="5.5" style="1" customWidth="1"/>
     <col min="41" max="41" width="5.5" style="1" customWidth="1"/>
-    <col min="42" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5" style="1" customWidth="1"/>
+    <col min="43" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -1566,6 +1567,7 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" s="3"/>
@@ -1689,6 +1691,7 @@
       <c r="AO2" t="s" s="4">
         <v>40</v>
       </c>
+      <c r="AP2" s="4"/>
     </row>
     <row r="3" ht="20.55" customHeight="1">
       <c r="A3" t="s" s="5">
@@ -1814,6 +1817,10 @@
       <c r="AO3" s="7">
         <v>0</v>
       </c>
+      <c r="AP3" s="7">
+        <f>SUM(B3:AO3)</f>
+        <v>1700</v>
+      </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="9">
@@ -1939,6 +1946,10 @@
       <c r="AO4" s="11">
         <v>0</v>
       </c>
+      <c r="AP4" s="11">
+        <f>SUM(B4:AO4)</f>
+        <v>1800</v>
+      </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="9">
@@ -2064,6 +2075,10 @@
       <c r="AO5" t="s" s="12">
         <v>42</v>
       </c>
+      <c r="AP5" s="11">
+        <f>SUM(B5:AO5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="9">
@@ -2189,10 +2204,14 @@
       <c r="AO6" s="11">
         <v>0</v>
       </c>
+      <c r="AP6" s="11">
+        <f>SUM(B6:AO6)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="A1:AP1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/PROCURAS.xlsx
+++ b/PROCURAS.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>Table 1</t>
   </si>
@@ -150,16 +157,16 @@
   </si>
   <si>
     <t>A* CAM = 0</t>
+  </si>
+  <si>
+    <t>-500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -171,7 +178,7 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -312,78 +319,129 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -509,7 +567,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -518,7 +576,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -527,7 +585,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -591,8 +649,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -600,7 +658,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -608,7 +666,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -627,7 +685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +693,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -663,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -689,7 +747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,7 +773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,7 +825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,7 +903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,9 +942,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -903,7 +967,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -922,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1169,9 +1233,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1185,7 +1255,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1204,7 +1274,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,7 +1408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1364,7 +1434,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1390,7 +1460,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1416,7 +1486,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1442,7 +1512,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1455,756 +1525,726 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AP6"/>
+  <dimension ref="A1:IV6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.5" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="5.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5" style="1" customWidth="1"/>
-    <col min="38" max="38" width="5.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5.5" style="1" customWidth="1"/>
-    <col min="40" max="40" width="5.5" style="1" customWidth="1"/>
-    <col min="41" max="41" width="5.5" style="1" customWidth="1"/>
-    <col min="42" max="42" width="5.5" style="1" customWidth="1"/>
-    <col min="43" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="42" width="5.5" style="1" customWidth="1"/>
+    <col min="43" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
+    <row r="1" spans="1:42" ht="28" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+    <row r="2" spans="1:42" ht="20.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s" s="4">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s" s="4">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s" s="4">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s" s="4">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s" s="4">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s" s="4">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s" s="4">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s" s="4">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s" s="4">
+      <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s" s="4">
+      <c r="W2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s" s="4">
+      <c r="X2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s" s="4">
+      <c r="Y2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s" s="4">
+      <c r="Z2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s" s="4">
+      <c r="AA2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s" s="4">
+      <c r="AB2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s" s="4">
+      <c r="AC2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s" s="4">
+      <c r="AD2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s" s="4">
+      <c r="AE2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s" s="4">
+      <c r="AF2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s" s="4">
+      <c r="AG2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s" s="4">
+      <c r="AH2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s" s="4">
+      <c r="AI2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s" s="4">
+      <c r="AJ2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s" s="4">
+      <c r="AK2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s" s="4">
+      <c r="AL2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s" s="4">
+      <c r="AM2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s" s="4">
+      <c r="AN2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s" s="4">
+      <c r="AO2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="4"/>
+      <c r="AP2" s="3"/>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:42" ht="20.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
         <v>500</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>300</v>
       </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>500</v>
       </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="7">
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="6">
         <v>400</v>
       </c>
-      <c r="AI3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="AM3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="7">
+      <c r="AI3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="6">
         <f>SUM(B3:AO3)</f>
         <v>1700</v>
       </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" spans="1:42" ht="20.25" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
         <v>400</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0</v>
-      </c>
-      <c r="T4" s="11">
-        <v>0</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="W4" s="11">
-        <v>0</v>
-      </c>
-      <c r="X4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11">
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
         <v>300</v>
       </c>
-      <c r="AA4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="11">
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="10">
         <v>400</v>
       </c>
-      <c r="AE4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="11">
+      <c r="AE4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="10">
         <v>300</v>
       </c>
-      <c r="AI4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="11">
+      <c r="AI4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="10">
         <v>400</v>
       </c>
-      <c r="AM4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="11">
+      <c r="AM4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="10">
         <f>SUM(B4:AO4)</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" spans="1:42" ht="20.25" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="O5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="Q5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="R5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="T5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="U5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="V5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="W5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="X5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="Y5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="Z5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AA5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AB5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AC5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AD5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AE5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AF5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AG5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AH5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AI5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AJ5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AK5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AL5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AM5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AN5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AO5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AP5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="10">
         <f>SUM(B5:AO5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" spans="1:42" ht="20.25" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="S6" s="11">
-        <v>0</v>
-      </c>
-      <c r="T6" s="11">
-        <v>0</v>
-      </c>
-      <c r="U6" s="11">
-        <v>0</v>
-      </c>
-      <c r="V6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="W6" s="11">
-        <v>0</v>
-      </c>
-      <c r="X6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="AM6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="10">
         <f>SUM(B6:AO6)</f>
         <v>0</v>
       </c>
@@ -2213,10 +2253,15 @@
   <mergeCells count="1">
     <mergeCell ref="A1:AP1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>